--- a/src/main/resources/manage/EIS需求和bug管理.xlsx
+++ b/src/main/resources/manage/EIS需求和bug管理.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FFA950-6586-45BD-A613-FA67609A65DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="157">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,13 +614,45 @@
   </si>
   <si>
     <t>新的流程文件报告没有生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下卡下面测试项目没消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗海泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标准失败后无提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱仕阳+苗海泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -666,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -689,22 +720,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -716,13 +736,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -735,14 +822,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -810,23 +897,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -862,23 +932,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1054,11 +1107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1821,70 +1874,189 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="4">
         <v>32</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="4" t="s">
         <v>138</v>
       </c>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>33</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="1"/>
+      <c r="G36" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="4">
         <v>34</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="1"/>
+      <c r="G37" s="4" t="s">
         <v>147</v>
       </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="D3:D14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D3:D14"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/manage/EIS需求和bug管理.xlsx
+++ b/src/main/resources/manage/EIS需求和bug管理.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29281952-26CF-40EF-957E-0CDFF0493A9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,50 +610,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新的流程文件报告没有生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下卡下面测试项目没消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苗海泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标准失败后无提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱仕阳+苗海泉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>待处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新的流程文件报告没有生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下卡下面测试项目没消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苗海泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除标准失败后无提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱仕阳+苗海泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理</t>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,7 +698,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -720,11 +721,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,80 +748,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -822,14 +767,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -897,6 +842,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -932,6 +894,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1107,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1898,46 +1877,46 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="8">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="4" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>34</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>34</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="4" t="s">
-        <v>147</v>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -1946,20 +1925,20 @@
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -1968,20 +1947,20 @@
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -2056,7 +2035,7 @@
       <c r="H46" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="D3:D14"/>
+  <autoFilter ref="D3:D14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
